--- a/output/fit_clients/fit_round_94.xlsx
+++ b/output/fit_clients/fit_round_94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6402812553.837309</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003771119257855967</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.746803911826319</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9677244379200736</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.746803911826319</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5614123918.111419</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005970052130297966</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.341785676987944</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9274276252046425</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.341785676987944</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4236439155.057741</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002528607472883163</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1326090447825288</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.442759814292015</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.2061389601724664</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.442759814292015</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3734019479.487247</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004164270728622522</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.340782550260427</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8510645344052743</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.340782550260427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5494753832.667521</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002114724521845966</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>27</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8189383836491103</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.148711617667473</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05764666850817</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.148711617667473</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8572906669.685068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001239646068593602</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.454574618247267</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9455794981531674</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.454574618247267</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7529315695.467823</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002373542420393417</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.180732547009285</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9841876399588778</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.180732547009285</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5528331946.272323</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004060050635765604</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.760443786489722</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9229827407719265</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.760443786489722</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3146000272.836538</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00430914266797545</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650116</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.236704418106492</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.4837794468468967</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.236704418106492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4609542745.845672</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001364979414117589</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.2599361808574</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.807646477409767</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.2599361808574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8694553462.739124</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.00161307432871429</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.644603610863523</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9979645075166649</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.644603610863523</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5952115815.006738</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003483891785863342</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.234155955082251</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.042556588515361</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.234155955082251</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7816855152.10374</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.0030389282701151</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.543204176888101</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9055084803203054</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.543204176888101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5552099714.844267</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005245628078352598</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.152998142623426</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.018020637227283</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.152998142623426</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5621702696.904061</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003646100221210916</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.862854039486107</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9411619480494253</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.862854039486107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>7051259557.67194</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002498228947672611</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.5444775425699</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9523212983785891</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.5444775425699</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5066898816.256621</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001094671716643276</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.577434012129941</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9399958532338303</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.577434012129941</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3943898942.325743</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002035370518261781</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>19</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.430293948646789</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9285897749481569</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.430293948646789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5290869670.019993</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001089907936510671</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.56243727429117</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8310487340175766</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.56243727429117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7557741795.966947</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005293789760448691</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.651420413104803</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8901374357963265</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.651420413104803</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6188656245.0729</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004738713136625583</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.418604540151763</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8180803676448879</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.418604540151763</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8510967874.441163</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.002017337371889316</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.112445710670082</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8840379888129717</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.112445710670082</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5328958281.740041</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004444328081760374</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5244915794508663</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818316</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.592551584696626</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9015060599400526</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.592551584696626</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6257923071.764164</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003012556958669203</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.854189850700061</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9568022050037149</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.854189850700061</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4200832103.030941</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001075838065299547</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.097442359790902</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8360044836936757</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.097442359790902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8610029315.587395</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003552815373763246</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.3647438246002724</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971373</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.448237900380319</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.6672186396992114</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.448237900380319</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7896829974.026123</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005028259949214318</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.73213657806254</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9354931932322377</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.73213657806254</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7005370197.245233</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001449197940704702</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>18</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.3935947794406025</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.288533662962607</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.590817437677402</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.7398102832794202</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.590817437677402</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8018238941.909047</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003848507973934905</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>24</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8686659270825188</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090876</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.04728933540465</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.084714001072779</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.04728933540465</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7902854624.074625</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003053816700727714</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>20</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.44073876267703</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.981844317927215</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.44073876267703</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4764557127.272606</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001416789027252687</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>21</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.601893973970252</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9331061147786832</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.601893973970252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6895819598.3283</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002204940086494641</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6314229635916935</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278147</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.88793338991113</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8769715494165253</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-2.88793338991113</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>4994891831.285531</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004584883730706713</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.632690589211562</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.767328345079853</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.632690589211562</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5288268736.133471</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002572534580146887</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.546258897036511</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9478385355137446</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.546258897036511</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>8114173790.493464</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003703854783353408</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380638</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.482196684752859</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.028292830894193</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.482196684752859</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4970456579.35487</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005915168395382632</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>21</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.488157867916507</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.02410688099439</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.488157867916507</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3391454966.455422</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004655751637993558</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.470516946151917</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9309097219544761</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.470516946151917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5739108476.081272</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.00257786384951225</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>16</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.9712505583552263</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.819744945929145</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.140849556050617</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.819744945929145</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6790785700.251904</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004091600518716068</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>20</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.557755238137664</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9904448092142982</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.557755238137664</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5481042993.361576</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001552963908823071</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.814838956645181</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9501307635845598</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.814838956645181</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6288045237.465251</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004788485448029057</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.383374679947196</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9968832369527706</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.383374679947196</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6226438758.17743</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004384877102129646</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>18</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.605237900069825</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9354344444921342</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.605237900069825</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5549012276.40029</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002124838753428762</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.385957635331531</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9488598580756294</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.385957635331531</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5888318095.169377</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001656441083783939</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.835148576292678</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9754005268079914</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.835148576292678</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9729261530.449678</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005320116045997895</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.339931103638333</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8271020562469213</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.339931103638333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8751671088.965021</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003224437907647343</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.28460243021904</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9019283217059724</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.28460243021904</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8241567459.798519</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002704192217624042</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>13</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.940421969092764</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9667419951047466</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-2.940421969092764</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3790410341.824174</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004969985665647073</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.397919672167798</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8840794320038091</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.397919672167798</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6741135607.788623</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002589354820297872</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.201284818539988</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.03355903228786</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.201284818539988</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5603033760.15111</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005326120195034883</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.38257823217681</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9676865770072604</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.38257823217681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8179488979.511374</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001517320429816352</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.356813526025755</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8598253997758761</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.356813526025755</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5727169941.925071</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002275704384214739</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.382495734365439</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.92513854969368</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.382495734365439</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4614818948.704195</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005456403990957148</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.185821716162091</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.149881227882958</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.185821716162091</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7220389250.377489</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003831948800812674</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.358532213971571</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9216942770432229</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.358532213971571</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5750844619.263369</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002975630079994519</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.45989482283923</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9182570352319553</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.45989482283923</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7125254171.46272</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003218721674399912</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>21</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.9447206170666874</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.272299159162784</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.072431453833573</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.272299159162784</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>7182459231.326905</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002135159875462237</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.276076889685027</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8548791671183423</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.276076889685027</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5561359659.703669</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003191224346621016</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.386512545437598</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9031232848514635</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.386512545437598</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5465840145.979578</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003400077733669614</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>22</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.90431049064499</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.143875825258255</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.052851356439709</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.143875825258255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5013572698.827304</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005030986841411018</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.734975824753502</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9363910443556064</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.734975824753502</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5613158705.088901</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003315710682609574</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.00546039609387</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8853398718375998</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.00546039609387</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>5936147304.619497</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005011711989639105</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>26</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.061134833456</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9006300773794816</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.061134833456</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3984748307.778932</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004240345353173398</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.584706014167976</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9101997439423013</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.584706014167976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6504445398.680122</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004029411621299116</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>25</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.587449904493429</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9903523257055099</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.587449904493429</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4448648224.101886</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00283242850075307</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>18</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.52188877548503</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9217340271260054</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.52188877548503</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5381622251.469061</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004094177574600998</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.793411564073367</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8984970187872028</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.793411564073367</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7960191009.113927</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002286500515139323</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6077300088816879</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.086783250892546</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7172456783340581</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.086783250892546</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5438893157.08202</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008806605492144929</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.07589194005895</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.00440944884166</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.07589194005895</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6780537452.348262</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002711797366297064</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.52202551437887</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9067189290465827</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.52202551437887</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4343992829.265799</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002575410656459518</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.658438004702141</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8195093953950594</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.658438004702141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8327258686.58069</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002057638712048092</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.482499274277013</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.06972882323888</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.482499274277013</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5206529377.41638</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.00111294882209252</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.686712358067366</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9743506207691883</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.686712358067366</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5703262061.615596</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004900863616105805</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>20</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.303599303214777</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8768966455231082</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.303599303214777</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7685263535.847219</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002940622070886067</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
         <v>18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.568700235391154</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8913276538612263</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.568700235391154</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5778331388.300127</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.001922784406080688</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.456671829786508</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9432956307735686</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.456671829786508</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6045515078.568148</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004562635756426969</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>13</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.02165637981570055</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.932007547253586</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-0.3135479609728133</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-2.932007547253586</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6959363085.022631</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004956000541363163</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>20</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.404107148291506</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9297110647164097</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.404107148291506</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7436834081.535056</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002523179785139637</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>16</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.548402976461053</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9622883365866856</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.548402976461053</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5558862313.500199</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002853055623693244</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.612031087344193</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9839828709360283</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.612031087344193</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>4910725866.161875</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004395576219966272</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.05457352796754</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.998074640267982</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.05457352796754</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8496996371.379526</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004766258934312685</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>21</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.9854527944988661</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.393917616070088</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.196370268658317</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.393917616070088</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10161311564.41</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002614284864247172</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>24</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.10725854017054</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8472975909994807</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.10725854017054</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7393511503.670746</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004709920218328938</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>22</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.239055774144239</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9643752782558693</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.239055774144239</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5304886565.785514</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002363632210200456</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>23</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.1694757046842151</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.160626402764157</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.230639393418671</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.160626402764157</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8853112063.228678</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002750719004707465</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.529429160772231</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9914776727710776</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.529429160772231</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4199570813.483899</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001671605594487221</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>27</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.389686069437295</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.04819530845643</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.7005610695400408</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.04819530845643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6150173651.672349</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004115133025830691</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.724585595769846</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.48573150280723</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.952487606318863</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.48573150280723</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6072404714.136769</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00513700703848822</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.899377438659138</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9808760176481743</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.899377438659138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4961186765.124502</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003739862921840408</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.554694195250224</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9677812265120994</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.554694195250224</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7709213761.720403</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003029972778731781</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.759671781087688</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8349328767924125</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.759671781087688</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4293608665.950744</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003781165927878906</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.778937805691942</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.067796331725383</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.778937805691942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6048985474.505671</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001579226038799366</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.384724939603669</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9365279789981249</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.384724939603669</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6600702265.913735</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001153175152987195</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>15</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.758082176581191</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.025248781962134</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.758082176581191</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>4816406904.125381</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002402112629332685</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.9926834939670711</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.559254101871482</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.223370186606709</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.559254101871482</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8887460913.351473</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002664977398790811</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>24</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.227983694593052</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9353169359416228</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.227983694593052</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6275591850.566006</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005506108077002992</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>18</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9794830012228044</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.626716842339292</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.183092153797901</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.626716842339292</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8160075606.057831</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003964059432590034</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.369030459760851</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8805785810285853</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.369030459760851</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3341451635.32133</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.003896786656492931</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>22</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.314431701731361</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9100789771165734</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.314431701731361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4503325965.835824</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002456792031684381</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.557055716576888</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8462186369329151</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.557055716576888</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8210181891.126897</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001598241193779914</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>21</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6212750608470993</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480225</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.5994965929592</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8983746787874251</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.5994965929592</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_94.xlsx
+++ b/output/fit_clients/fit_round_94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6402812553.837309</v>
+        <v>1704463675.474181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003771119257855967</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>23</v>
+        <v>0.07408127406338491</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04543546809942908</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>852231793.5549481</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5614123918.111419</v>
+        <v>1959248562.883645</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005970052130297966</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23</v>
+        <v>0.1148664267597827</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03561367145713956</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>979624315.1205941</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4236439155.057741</v>
+        <v>3839447706.013158</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002528607472883163</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
+        <v>0.1026749731473787</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03019947945086364</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1919723855.741009</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3734019479.487247</v>
+        <v>4125925975.762635</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004164270728622522</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07370067794248004</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03498503922191381</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2062962983.214289</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5494753832.667521</v>
+        <v>1809804116.204581</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002114724521845966</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
+        <v>0.1449296791963758</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03572554375465012</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>904902108.2014166</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8572906669.685068</v>
+        <v>2608343567.955447</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001239646068593602</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+        <v>0.09998140655504759</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03783511305071628</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1304171786.492506</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7529315695.467823</v>
+        <v>3762886840.197641</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002373542420393417</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>24</v>
+        <v>0.1329088267570835</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02931835669608944</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1881443555.509851</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5528331946.272323</v>
+        <v>2152412497.163599</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004060050635765604</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30</v>
+        <v>0.1296932786498411</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02620911930635992</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1076206253.960683</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3146000272.836538</v>
+        <v>5748091474.278283</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00430914266797545</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1492619951729597</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04233920883334696</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2874045894.323005</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4609542745.845672</v>
+        <v>2659178224.828798</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001364979414117589</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1436289487492893</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0438833846166124</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1329589031.471334</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8694553462.739124</v>
+        <v>2556981757.83792</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00161307432871429</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>27</v>
+        <v>0.1339290229258533</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03813659381124032</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>34</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1278490856.301662</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5952115815.006738</v>
+        <v>3324520750.250704</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003483891785863342</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19</v>
+        <v>0.08931919903866403</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0276563964405592</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>32</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1662260464.30158</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7816855152.10374</v>
+        <v>3601852522.781431</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0030389282701151</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22</v>
+        <v>0.1431765505479225</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03853168515577716</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1800926252.191023</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5552099714.844267</v>
+        <v>1720396152.059459</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005245628078352598</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
+        <v>0.07625692842400127</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03387336324751845</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>860198211.4162624</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5621702696.904061</v>
+        <v>2033223561.91472</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003646100221210916</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>30</v>
+        <v>0.08733852944243176</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04171812247699795</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1016611853.403241</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>476</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5072893668.509682</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1706048629282757</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04969872753374839</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>462</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7051259557.67194</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.002498228947672611</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>19</v>
+      <c r="I17" t="n">
+        <v>27</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2536446815.738232</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>504</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3262192049.393329</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1156200033951335</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02895803882854929</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>536</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5066898816.256621</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.001094671716643276</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27</v>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1631096035.903318</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3943898942.325743</v>
+        <v>1163043187.081753</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002035370518261781</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1577288926067767</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02117169873901505</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>581521662.3749951</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5290869670.019993</v>
+        <v>1863289802.932347</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001089907936510671</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1397840715473437</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02295283638573851</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>931644942.3094301</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7557741795.966947</v>
+        <v>2028248561.797748</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005293789760448691</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>18</v>
+        <v>0.1006001614287792</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04551764778817141</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1014124314.089308</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6188656245.0729</v>
+        <v>2503329563.992088</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004738713136625583</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+        <v>0.09516328556014218</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04868422940960726</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1251664873.199349</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8510967874.441163</v>
+        <v>1058030714.290764</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002017337371889316</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>18</v>
+        <v>0.1568243898651358</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04108546950925799</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>529015417.4735534</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5328958281.740041</v>
+        <v>2613349982.81881</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004444328081760374</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>24</v>
+        <v>0.1335349516150582</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03483884996752512</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1306675052.591202</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6257923071.764164</v>
+        <v>1284904547.409798</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003012556958669203</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>21</v>
+        <v>0.1010559247662165</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02753910400521542</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>642452272.0668714</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4200832103.030941</v>
+        <v>1372937204.831417</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001075838065299547</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.07845275290853512</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03485640926818283</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>686468665.7158059</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8610029315.587395</v>
+        <v>4343060002.610609</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003552815373763246</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>27</v>
+        <v>0.1234055515069897</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02724661570476409</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2171529994.344703</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7896829974.026123</v>
+        <v>3644246430.667651</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005028259949214318</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>24</v>
+        <v>0.1057830159683564</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04852828163535781</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1822123282.409166</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7005370197.245233</v>
+        <v>4443787903.485031</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001449197940704702</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>23</v>
+        <v>0.1428007422541914</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02903240931434789</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2221893937.752813</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8018238941.909047</v>
+        <v>1584305190.409187</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003848507973934905</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>29</v>
+        <v>0.1273617171141117</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0374137835243913</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>792152585.2521225</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7902854624.074625</v>
+        <v>1251692527.404931</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003053816700727714</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>19</v>
+        <v>0.1045186093415812</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03799439021948814</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>625846202.9347845</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4764557127.272606</v>
+        <v>1842099050.806982</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001416789027252687</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.0866218633249701</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03169850993734571</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>921049664.5464894</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6895819598.3283</v>
+        <v>1945527518.673096</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002204940086494641</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>20</v>
+        <v>0.202090486977359</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03753673851279524</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>27</v>
+      </c>
+      <c r="J33" t="n">
+        <v>972763844.6989495</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>4994891831.285531</v>
+        <v>1120859344.814585</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004584883730706713</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>29</v>
+        <v>0.07673705959601579</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02601679305498564</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>560429690.4076974</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5288268736.133471</v>
+        <v>933903251.3141061</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002572534580146887</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>24</v>
+        <v>0.08180134783093086</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02952998962403757</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>466951658.6595535</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>8114173790.493464</v>
+        <v>1985819442.265174</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003703854783353408</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>27</v>
+        <v>0.1205533468858514</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01789448245192086</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>992909784.2311093</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4970456579.35487</v>
+        <v>2897836555.543928</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005915168395382632</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>24</v>
+        <v>0.07476049785038251</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04249403652687381</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1448918428.482244</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3391454966.455422</v>
+        <v>1448223463.840065</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004655751637993558</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1159573605854955</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03595222232734743</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>724111788.4126599</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5739108476.081272</v>
+        <v>1734719690.412684</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00257786384951225</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1799226970257443</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02929065149030588</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>867359879.9345382</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6790785700.251904</v>
+        <v>1715954797.390815</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004091600518716068</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1420945712083572</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04702210195782465</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>857977310.7540405</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5481042993.361576</v>
+        <v>2111235662.433966</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001552963908823071</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>27</v>
+        <v>0.1011740207607248</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03851720771187425</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1055617894.478495</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6288045237.465251</v>
+        <v>3601728695.649859</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004788485448029057</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>22</v>
+        <v>0.07891240057078298</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03278498489144722</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1800864349.615008</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6226438758.17743</v>
+        <v>2298932226.281012</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004384877102129646</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>22</v>
+        <v>0.1375203625797891</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02193987233189303</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1149466181.958977</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5549012276.40029</v>
+        <v>1581123380.78089</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002124838753428762</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>25</v>
+        <v>0.1030253547054249</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02896906811323675</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>790561713.0692797</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5888318095.169377</v>
+        <v>2477400180.248793</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001656441083783939</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1181765721678891</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03713839292675568</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1238700129.021409</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9729261530.449678</v>
+        <v>4661549974.857479</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005320116045997895</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>15</v>
+        <v>0.1776723443187568</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04954389003205523</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>33</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2330774994.776742</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8751671088.965021</v>
+        <v>3320835367.612053</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003224437907647343</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1461572856021888</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05747530757362976</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1660417644.38896</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8241567459.798519</v>
+        <v>3799759047.030975</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002704192217624042</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16</v>
+        <v>0.07251838708513568</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02818395404767034</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1899879569.451601</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3790410341.824174</v>
+        <v>1757879758.034807</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004969985665647073</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1445530750125844</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0300096189421335</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>878939870.8753741</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6741135607.788623</v>
+        <v>3121489719.15497</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002589354820297872</v>
-      </c>
-      <c r="G50" t="b">
+        <v>0.1563225700169169</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05246706103949794</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>26</v>
+      <c r="I50" t="n">
+        <v>32</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1560744910.686207</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5603033760.15111</v>
+        <v>1439267616.88349</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005326120195034883</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1785747166267454</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04426751330650933</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>719633821.1242578</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8179488979.511374</v>
+        <v>4191466538.367373</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001517320429816352</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>23</v>
+        <v>0.1054773526316208</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.03787502037589945</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>39</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2095733314.323524</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5727169941.925071</v>
+        <v>2550030656.302684</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002275704384214739</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>18</v>
+        <v>0.1287615111278133</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02928584360829279</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>27</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1275015391.610067</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4614818948.704195</v>
+        <v>4353000292.487083</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005456403990957148</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>23</v>
+        <v>0.1294888172933653</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04643673474250127</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>30</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2176500237.951235</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7220389250.377489</v>
+        <v>3650033895.983821</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003831948800812674</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>30</v>
+        <v>0.1806324593579773</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0252928970900976</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1825016907.397801</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5750844619.263369</v>
+        <v>1399009081.95099</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002975630079994519</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1368859689872261</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05466503522167442</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>699504598.1447242</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7125254171.46272</v>
+        <v>3034895752.05222</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003218721674399912</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1643962705384972</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01675388277803156</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1517447883.306372</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>7182459231.326905</v>
+        <v>1285005504.481773</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002135159875462237</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>21</v>
+        <v>0.1325422567197932</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03416290218758861</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>642502802.9121768</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5561359659.703669</v>
+        <v>5073801940.937863</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003191224346621016</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1194201796335135</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03394357732745051</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2536900894.54625</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5465840145.979578</v>
+        <v>2463952960.364051</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003400077733669614</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1627860722886815</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02623967061850475</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1231976494.242359</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5013572698.827304</v>
+        <v>2394879577.430307</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005030986841411018</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.1403485068506857</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02348487934287039</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>33</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1197439826.170487</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5613158705.088901</v>
+        <v>1743584618.455013</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003315710682609574</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>16</v>
+        <v>0.1475303401153855</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03219412134105058</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>871792328.7799306</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5936147304.619497</v>
+        <v>5072335129.858737</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005011711989639105</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.07638757178648248</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04773795392120364</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>27</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2536167579.390974</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3984748307.778932</v>
+        <v>5527573287.444587</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004240345353173398</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1317885374710098</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02146069712547969</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>29</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2763786786.952035</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6504445398.680122</v>
+        <v>4556041933.312207</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004029411621299116</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>24</v>
+        <v>0.1198565509336148</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02301966872084135</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>34</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2278020951.985382</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4448648224.101886</v>
+        <v>5514348413.096848</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00283242850075307</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>20</v>
+        <v>0.1470546923329175</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04111345833516547</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>27</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2757174261.218526</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5381622251.469061</v>
+        <v>3075736778.154863</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004094177574600998</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19</v>
+        <v>0.06271965829696992</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03433658456854421</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>31</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1537868400.83062</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7960191009.113927</v>
+        <v>4593117000.038351</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002286500515139323</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>20</v>
+        <v>0.1406330781848091</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03242877633545103</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>30</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2296558531.678829</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5438893157.08202</v>
+        <v>2098900134.047135</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008806605492144929</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1251263219580261</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05045367174877942</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1049450084.716654</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6780537452.348262</v>
+        <v>2386054136.976188</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002711797366297064</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.1019188697973422</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03421948547885828</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1193027005.43087</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4343992829.265799</v>
+        <v>4308110312.726984</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002575410656459518</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1518442402812888</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02348037801312305</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>34</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2154055210.35982</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8327258686.58069</v>
+        <v>1410203177.42103</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002057638712048092</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.08302684174507266</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03784997102712356</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>705101630.1261144</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5206529377.41638</v>
+        <v>3202550318.146217</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00111294882209252</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23</v>
+        <v>0.08628738194357165</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03361084486217356</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1601275136.448539</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5703262061.615596</v>
+        <v>3378104349.86831</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004900863616105805</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>22</v>
+        <v>0.1811810950557275</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0339356720339215</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>32</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1689052207.572931</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7685263535.847219</v>
+        <v>2349432594.074976</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002940622070886067</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>18</v>
+        <v>0.1195191799972854</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02584238187781001</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1174716228.426057</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>412</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4383673727.14115</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1102875418569084</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03420282108209143</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="D76" t="n">
-        <v>459</v>
-      </c>
-      <c r="E76" t="n">
-        <v>5778331388.300127</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.001922784406080688</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>19</v>
+      <c r="I76" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2191836864.306015</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6045515078.568148</v>
+        <v>2123892423.974637</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004562635756426969</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>31</v>
+        <v>0.1609996576849956</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02681504298323326</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1061946291.716721</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6959363085.022631</v>
+        <v>4618098472.488536</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004956000541363163</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1048338800679333</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05566835687160076</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>35</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2309049157.648899</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7436834081.535056</v>
+        <v>1275834439.372426</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002523179785139637</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21</v>
+        <v>0.124675377301902</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03669939597049143</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>637917214.6056845</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5558862313.500199</v>
+        <v>4984154771.050979</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002853055623693244</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>32</v>
+        <v>0.1052029546702851</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03622981815547422</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>19</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2492077433.867422</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4910725866.161875</v>
+        <v>3468332876.530324</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004395576219966272</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.13122773731014</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02843582121707016</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>21</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1734166381.612806</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8496996371.379526</v>
+        <v>5133745104.84526</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004766258934312685</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1711917471806478</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02943044902742119</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>33</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2566872528.85288</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10161311564.41</v>
+        <v>2487782351.073324</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002614284864247172</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>29</v>
+        <v>0.1577063758124386</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04498137933142365</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1243891221.529021</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7393511503.670746</v>
+        <v>2416460951.499443</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004709920218328938</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>25</v>
+        <v>0.1104681932982334</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05110740855755269</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1208230419.689533</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5304886565.785514</v>
+        <v>2736634592.371822</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002363632210200456</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1181112303461152</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04106906519032474</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1368317327.190619</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>502</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2811679020.360591</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1065675795330567</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02695661492572404</v>
+      </c>
+      <c r="H86" t="b">
         <v>1</v>
       </c>
-      <c r="D86" t="n">
-        <v>517</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8853112063.228678</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.002750719004707465</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>30</v>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1405839650.611872</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4199570813.483899</v>
+        <v>1337717394.005166</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001671605594487221</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1362839517130719</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.0312088512772801</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>668858787.8328104</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6150173651.672349</v>
+        <v>3073829694.305097</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004115133025830691</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1248842096094167</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0321984181045689</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>37</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1536914884.816684</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6072404714.136769</v>
+        <v>3037567728.23279</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00513700703848822</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>21</v>
+        <v>0.1061469565459178</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02874225444161594</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>32</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1518783899.390149</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4961186765.124502</v>
+        <v>2027801843.592307</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003739862921840408</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>17</v>
+        <v>0.1137574578823039</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03581529937912929</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1013900997.045729</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7709213761.720403</v>
+        <v>1618760686.791689</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003029972778731781</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>28</v>
+        <v>0.1586754056658131</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03944682957048089</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>809380366.4065956</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4293608665.950744</v>
+        <v>2509440974.840694</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003781165927878906</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08283067485892248</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03008315428256095</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1254720472.003991</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6048985474.505671</v>
+        <v>4778128503.012712</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001579226038799366</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>31</v>
+        <v>0.09985474057167673</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05144750946511314</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>28</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2389064201.756415</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6600702265.913735</v>
+        <v>2447608630.60742</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001153175152987195</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>30</v>
+        <v>0.1419408060918648</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02637488455014414</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1223804371.90204</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>4816406904.125381</v>
+        <v>2128260679.43768</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002402112629332685</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>24</v>
+        <v>0.1031417717858523</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03403767453398562</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>22</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1064130402.794041</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8887460913.351473</v>
+        <v>1556107327.620298</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002664977398790811</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>25</v>
+        <v>0.09043595472785262</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03189862449981929</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>778053698.1099089</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6275591850.566006</v>
+        <v>3597355488.004375</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005506108077002992</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>24</v>
+        <v>0.112349626837403</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02602138960490288</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>31</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1798677767.939594</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8160075606.057831</v>
+        <v>2715489915.925406</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003964059432590034</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>35</v>
+        <v>0.1215464795818671</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.01988018135746129</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1357744923.303094</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3341451635.32133</v>
+        <v>2654966052.726403</v>
       </c>
       <c r="F99" t="n">
-        <v>0.003896786656492931</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09454265410130058</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02891034321666236</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>29</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1327482987.222641</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4503325965.835824</v>
+        <v>3512041358.7951</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002456792031684381</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1130326264361194</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01738025971833567</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>29</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1756020711.037673</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8210181891.126897</v>
+        <v>2173250729.957455</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001598241193779914</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>30</v>
+        <v>0.1401618907831547</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05422431563461307</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>40</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1086625344.680157</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_94.xlsx
+++ b/output/fit_clients/fit_round_94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1704463675.474181</v>
+        <v>1860341699.110686</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07408127406338491</v>
+        <v>0.07780475680769636</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04543546809942908</v>
+        <v>0.03740515272200789</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>852231793.5549481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1959248562.883645</v>
+        <v>2370815830.872693</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1148664267597827</v>
+        <v>0.1459459340214715</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03561367145713956</v>
+        <v>0.04693609310766564</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>979624315.1205941</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3839447706.013158</v>
+        <v>5154318677.862263</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1026749731473787</v>
+        <v>0.1178246548248387</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03019947945086364</v>
+        <v>0.02357373957216547</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1919723855.741009</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4125925975.762635</v>
+        <v>3413312376.53989</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07370067794248004</v>
+        <v>0.08148631851278768</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03498503922191381</v>
+        <v>0.04439000495508116</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2062962983.214289</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1809804116.204581</v>
+        <v>2058440596.233994</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1449296791963758</v>
+        <v>0.137632325839511</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03572554375465012</v>
+        <v>0.0475480489348741</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>904902108.2014166</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2608343567.955447</v>
+        <v>2336607375.998036</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09998140655504759</v>
+        <v>0.09169358701198654</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03783511305071628</v>
+        <v>0.04355333050466115</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1304171786.492506</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3762886840.197641</v>
+        <v>3203237967.47786</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1329088267570835</v>
+        <v>0.1935852898041911</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02931835669608944</v>
+        <v>0.023253571762118</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1881443555.509851</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2152412497.163599</v>
+        <v>2045334737.908556</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1296932786498411</v>
+        <v>0.1395978214652769</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02620911930635992</v>
+        <v>0.03554305121776039</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1076206253.960683</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5748091474.278283</v>
+        <v>5946184658.015409</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1492619951729597</v>
+        <v>0.2004998179636053</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04233920883334696</v>
+        <v>0.0362166973695212</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>40</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2874045894.323005</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2659178224.828798</v>
+        <v>2787829265.153918</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1436289487492893</v>
+        <v>0.1618941279166875</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0438833846166124</v>
+        <v>0.04144927046127526</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>39</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1329589031.471334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2556981757.83792</v>
+        <v>2588084911.490443</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1339290229258533</v>
+        <v>0.1703122205101212</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03813659381124032</v>
+        <v>0.04602758653675454</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>34</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1278490856.301662</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3324520750.250704</v>
+        <v>3303752465.671095</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08931919903866403</v>
+        <v>0.07371808042588013</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0276563964405592</v>
+        <v>0.02280499910234882</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>32</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1662260464.30158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3601852522.781431</v>
+        <v>3556676079.704258</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1431765505479225</v>
+        <v>0.1426552810445715</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03853168515577716</v>
+        <v>0.03390623686640197</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>30</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1800926252.191023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1720396152.059459</v>
+        <v>1274916095.093545</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07625692842400127</v>
+        <v>0.09245845141065323</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03387336324751845</v>
+        <v>0.04381741602010665</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>860198211.4162624</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2033223561.91472</v>
+        <v>2145981145.145317</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08733852944243176</v>
+        <v>0.0814530091866788</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04171812247699795</v>
+        <v>0.03462125887750593</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1016611853.403241</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5072893668.509682</v>
+        <v>3734625071.554778</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1706048629282757</v>
+        <v>0.1279924161873064</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04969872753374839</v>
+        <v>0.04719845469765364</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2536446815.738232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3262192049.393329</v>
+        <v>2482253928.378144</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1156200033951335</v>
+        <v>0.1828907618334383</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02895803882854929</v>
+        <v>0.03148344391747379</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>30</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1631096035.903318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1163043187.081753</v>
+        <v>881241137.3375895</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1577288926067767</v>
+        <v>0.1255725267989695</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02117169873901505</v>
+        <v>0.02557086787392006</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>581521662.3749951</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1863289802.932347</v>
+        <v>2185620753.927324</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1397840715473437</v>
+        <v>0.1358847747729948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02295283638573851</v>
+        <v>0.02181576077597744</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>931644942.3094301</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2028248561.797748</v>
+        <v>2241463248.52386</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1006001614287792</v>
+        <v>0.07191567185672355</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04551764778817141</v>
+        <v>0.02927154833658393</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1014124314.089308</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2503329563.992088</v>
+        <v>2500758658.0098</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09516328556014218</v>
+        <v>0.1068631787980922</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04868422940960726</v>
+        <v>0.04623329504079163</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1251664873.199349</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1058030714.290764</v>
+        <v>1516062162.680405</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1568243898651358</v>
+        <v>0.1740023562155283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04108546950925799</v>
+        <v>0.03542988043249094</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>529015417.4735534</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2613349982.81881</v>
+        <v>3951191519.64287</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1335349516150582</v>
+        <v>0.09424645598937821</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03483884996752512</v>
+        <v>0.03663458297950218</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>27</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1306675052.591202</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1284904547.409798</v>
+        <v>1235659820.543958</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1010559247662165</v>
+        <v>0.1013148381618344</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02753910400521542</v>
+        <v>0.02792702642334378</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>642452272.0668714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1372937204.831417</v>
+        <v>1050836503.476734</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07845275290853512</v>
+        <v>0.1028266253812119</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03485640926818283</v>
+        <v>0.03277184351737615</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>686468665.7158059</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4343060002.610609</v>
+        <v>3107050024.218708</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1234055515069897</v>
+        <v>0.1449081200530695</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02724661570476409</v>
+        <v>0.01706171528156739</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2171529994.344703</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3644246430.667651</v>
+        <v>3601000947.745634</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1057830159683564</v>
+        <v>0.1485988665109269</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04852828163535781</v>
+        <v>0.0464708268648193</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>30</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1822123282.409166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4443787903.485031</v>
+        <v>5821676050.573686</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1428007422541914</v>
+        <v>0.1012430784704102</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02903240931434789</v>
+        <v>0.0328904114501894</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>45</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2221893937.752813</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1584305190.409187</v>
+        <v>1887876355.085071</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1273617171141117</v>
+        <v>0.1302925108898144</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0374137835243913</v>
+        <v>0.03202327123811098</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>792152585.2521225</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1251692527.404931</v>
+        <v>1073622152.864473</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1045186093415812</v>
+        <v>0.1068038828339495</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03799439021948814</v>
+        <v>0.04554622081619186</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>625846202.9347845</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1842099050.806982</v>
+        <v>1598660533.521752</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0866218633249701</v>
+        <v>0.1042768424705678</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03169850993734571</v>
+        <v>0.02377177191923483</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>921049664.5464894</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1945527518.673096</v>
+        <v>2487120267.644132</v>
       </c>
       <c r="F33" t="n">
-        <v>0.202090486977359</v>
+        <v>0.1921170873126135</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03753673851279524</v>
+        <v>0.0375616982969065</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>27</v>
-      </c>
-      <c r="J33" t="n">
-        <v>972763844.6989495</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1120859344.814585</v>
+        <v>1504438976.428107</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07673705959601579</v>
+        <v>0.1038543698644459</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02601679305498564</v>
+        <v>0.01793518942909391</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>560429690.4076974</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>933903251.3141061</v>
+        <v>1118003956.233123</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08180134783093086</v>
+        <v>0.08086584074610094</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02952998962403757</v>
+        <v>0.03540577714974832</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>466951658.6595535</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1985819442.265174</v>
+        <v>2929677590.391584</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1205533468858514</v>
+        <v>0.1559064817924523</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01789448245192086</v>
+        <v>0.02048894979551857</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>992909784.2311093</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2897836555.543928</v>
+        <v>2518810771.655467</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07476049785038251</v>
+        <v>0.08407560928208294</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04249403652687381</v>
+        <v>0.0329129280379638</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1448918428.482244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1448223463.840065</v>
+        <v>1706389233.387468</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1159573605854955</v>
+        <v>0.1145934719751331</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03595222232734743</v>
+        <v>0.03254897441767778</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>724111788.4126599</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1734719690.412684</v>
+        <v>1651912409.608526</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1799226970257443</v>
+        <v>0.1590751789021968</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02929065149030588</v>
+        <v>0.02914508441129531</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>867359879.9345382</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1715954797.390815</v>
+        <v>1475677389.394766</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1420945712083572</v>
+        <v>0.1419813959341943</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04702210195782465</v>
+        <v>0.04246408024946089</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>857977310.7540405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2111235662.433966</v>
+        <v>2416517922.015959</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1011740207607248</v>
+        <v>0.1509621073483648</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03851720771187425</v>
+        <v>0.03397269798619469</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1055617894.478495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3601728695.649859</v>
+        <v>3134975026.403376</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07891240057078298</v>
+        <v>0.09016077236517284</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03278498489144722</v>
+        <v>0.04025330888962636</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1800864349.615008</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2298932226.281012</v>
+        <v>2942844863.277733</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1375203625797891</v>
+        <v>0.1989052686896959</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02193987233189303</v>
+        <v>0.01604193198357704</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1149466181.958977</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1581123380.78089</v>
+        <v>1514079567.011502</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1030253547054249</v>
+        <v>0.06371118937323904</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02896906811323675</v>
+        <v>0.02776635698959746</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>790561713.0692797</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2477400180.248793</v>
+        <v>2057424117.754461</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1181765721678891</v>
+        <v>0.1699753267886285</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03713839292675568</v>
+        <v>0.04004672091986241</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1238700129.021409</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4661549974.857479</v>
+        <v>4654571703.996457</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1776723443187568</v>
+        <v>0.1076440955151469</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04954389003205523</v>
+        <v>0.05048311716075268</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>33</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2330774994.776742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3320835367.612053</v>
+        <v>4951627349.948693</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1461572856021888</v>
+        <v>0.1831851063473862</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05747530757362976</v>
+        <v>0.0366993088367519</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>25</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1660417644.38896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3799759047.030975</v>
+        <v>2842935508.825913</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07251838708513568</v>
+        <v>0.093448624385915</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02818395404767034</v>
+        <v>0.03451533038487199</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1899879569.451601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1757879758.034807</v>
+        <v>1469530613.236531</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1445530750125844</v>
+        <v>0.1714736751794034</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0300096189421335</v>
+        <v>0.04074689839865939</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>878939870.8753741</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3121489719.15497</v>
+        <v>3354526080.254104</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1563225700169169</v>
+        <v>0.1666165382708307</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05246706103949794</v>
+        <v>0.0384614703612105</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>32</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1560744910.686207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1439267616.88349</v>
+        <v>1016825504.321161</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1785747166267454</v>
+        <v>0.1450219731840349</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04426751330650933</v>
+        <v>0.04497039200632914</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>719633821.1242578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4191466538.367373</v>
+        <v>5129041999.673622</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1054773526316208</v>
+        <v>0.1296133686732559</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03787502037589945</v>
+        <v>0.04667816018567522</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>39</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2095733314.323524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2550030656.302684</v>
+        <v>3189180980.13924</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1287615111278133</v>
+        <v>0.1774819399137106</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02928584360829279</v>
+        <v>0.03170275976599791</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>27</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1275015391.610067</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4353000292.487083</v>
+        <v>4334808822.286544</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1294888172933653</v>
+        <v>0.1453472069004262</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04643673474250127</v>
+        <v>0.04167891597990029</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>30</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2176500237.951235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3650033895.983821</v>
+        <v>4112181649.859543</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1806324593579773</v>
+        <v>0.1898172350202926</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0252928970900976</v>
+        <v>0.02709303646088425</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1825016907.397801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1399009081.95099</v>
+        <v>1876425489.292225</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1368859689872261</v>
+        <v>0.1228297177675608</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05466503522167442</v>
+        <v>0.03629499878074936</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>699504598.1447242</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3034895752.05222</v>
+        <v>4290259211.224965</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1643962705384972</v>
+        <v>0.158036447425809</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01675388277803156</v>
+        <v>0.01964530845475439</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>30</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1517447883.306372</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1285005504.481773</v>
+        <v>1669018506.549653</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1325422567197932</v>
+        <v>0.1573165826012489</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03416290218758861</v>
+        <v>0.02620058334272935</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>642502802.9121768</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5073801940.937863</v>
+        <v>4660924046.394249</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1194201796335135</v>
+        <v>0.1081962616413775</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03394357732745051</v>
+        <v>0.03366207623481405</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2536900894.54625</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2463952960.364051</v>
+        <v>3264442196.821554</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1627860722886815</v>
+        <v>0.1598515054588246</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02623967061850475</v>
+        <v>0.02081465018970478</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>29</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1231976494.242359</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2394879577.430307</v>
+        <v>2269239233.128036</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1403485068506857</v>
+        <v>0.1535324570539114</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02348487934287039</v>
+        <v>0.02534884362674505</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>33</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1197439826.170487</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1743584618.455013</v>
+        <v>1517973310.671451</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1475303401153855</v>
+        <v>0.142143082036627</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03219412134105058</v>
+        <v>0.04162366875920471</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>871792328.7799306</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5072335129.858737</v>
+        <v>4462568242.430421</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07638757178648248</v>
+        <v>0.07271676112249423</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04773795392120364</v>
+        <v>0.03249713523874402</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>27</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2536167579.390974</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5527573287.444587</v>
+        <v>3573463479.297158</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1317885374710098</v>
+        <v>0.1367686714399603</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02146069712547969</v>
+        <v>0.02924423916291439</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>29</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2763786786.952035</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4556041933.312207</v>
+        <v>4738203835.500684</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1198565509336148</v>
+        <v>0.1084876347799906</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02301966872084135</v>
+        <v>0.02175505449546888</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>34</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2278020951.985382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5514348413.096848</v>
+        <v>3577380681.588005</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1470546923329175</v>
+        <v>0.1285682997491728</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04111345833516547</v>
+        <v>0.04152746592789862</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>27</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2757174261.218526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3075736778.154863</v>
+        <v>2381187296.049249</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06271965829696992</v>
+        <v>0.1002767307612918</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03433658456854421</v>
+        <v>0.04382434081758607</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>31</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1537868400.83062</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4593117000.038351</v>
+        <v>4268367237.462325</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1406330781848091</v>
+        <v>0.1500411466931509</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03242877633545103</v>
+        <v>0.04248446192807865</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>30</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2296558531.678829</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2098900134.047135</v>
+        <v>2143140217.304007</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1251263219580261</v>
+        <v>0.1209744335791131</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05045367174877942</v>
+        <v>0.0411540644035969</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1049450084.716654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2386054136.976188</v>
+        <v>3281870557.091136</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1019188697973422</v>
+        <v>0.08281873221011567</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03421948547885828</v>
+        <v>0.04558734979932248</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1193027005.43087</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4308110312.726984</v>
+        <v>3802421941.321563</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1518442402812888</v>
+        <v>0.1316559485375584</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02348037801312305</v>
+        <v>0.0255181196977428</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>34</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2154055210.35982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1410203177.42103</v>
+        <v>1596570243.46059</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08302684174507266</v>
+        <v>0.1031444529852037</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03784997102712356</v>
+        <v>0.05236856882716102</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>705101630.1261144</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3202550318.146217</v>
+        <v>2452482731.548912</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08628738194357165</v>
+        <v>0.07958935373380489</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03361084486217356</v>
+        <v>0.04087829209155106</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>36</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1601275136.448539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3378104349.86831</v>
+        <v>3061911754.840446</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1811810950557275</v>
+        <v>0.1544212971769093</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0339356720339215</v>
+        <v>0.0287854129274745</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>32</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1689052207.572931</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2349432594.074976</v>
+        <v>1864991919.285675</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1195191799972854</v>
+        <v>0.1068625652050282</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02584238187781001</v>
+        <v>0.02728359148752226</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1174716228.426057</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4383673727.14115</v>
+        <v>4264648420.502385</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1102875418569084</v>
+        <v>0.0858288363860599</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03420282108209143</v>
+        <v>0.02898019599479656</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2191836864.306015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2123892423.974637</v>
+        <v>1419964700.105421</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1609996576849956</v>
+        <v>0.1617017237649531</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02681504298323326</v>
+        <v>0.01919100241397888</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1061946291.716721</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4618098472.488536</v>
+        <v>3817633039.06645</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1048338800679333</v>
+        <v>0.108119101628479</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05566835687160076</v>
+        <v>0.04209919321517745</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>35</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2309049157.648899</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1275834439.372426</v>
+        <v>1188174625.129017</v>
       </c>
       <c r="F79" t="n">
-        <v>0.124675377301902</v>
+        <v>0.1605974889365537</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03669939597049143</v>
+        <v>0.03187262946940036</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>637917214.6056845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4984154771.050979</v>
+        <v>4288563125.851912</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1052029546702851</v>
+        <v>0.07743517317777708</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03622981815547422</v>
+        <v>0.03556658471623061</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2492077433.867422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3468332876.530324</v>
+        <v>3780579554.514418</v>
       </c>
       <c r="F81" t="n">
-        <v>0.13122773731014</v>
+        <v>0.1248148057428563</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02843582121707016</v>
+        <v>0.0258790539712951</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>21</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1734166381.612806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5133745104.84526</v>
+        <v>5554821631.156083</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1711917471806478</v>
+        <v>0.1508072772510102</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02943044902742119</v>
+        <v>0.01925850795548434</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>33</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2566872528.85288</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2487782351.073324</v>
+        <v>2258392648.484076</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1577063758124386</v>
+        <v>0.1167738534755725</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04498137933142365</v>
+        <v>0.02977145379711119</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1243891221.529021</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2416460951.499443</v>
+        <v>2402500841.951366</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1104681932982334</v>
+        <v>0.093542255069685</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05110740855755269</v>
+        <v>0.04253036586926211</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1208230419.689533</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2736634592.371822</v>
+        <v>3522040939.962296</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1181112303461152</v>
+        <v>0.1832173968127587</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04106906519032474</v>
+        <v>0.03469615545591103</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>36</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1368317327.190619</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2811679020.360591</v>
+        <v>2442197708.932941</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1065675795330567</v>
+        <v>0.1141807325207836</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02695661492572404</v>
+        <v>0.02232724150311034</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1405839650.611872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1337717394.005166</v>
+        <v>1101280075.309927</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1362839517130719</v>
+        <v>0.1278483443118306</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0312088512772801</v>
+        <v>0.02833326783970978</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>668858787.8328104</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3073829694.305097</v>
+        <v>2865274113.705543</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1248842096094167</v>
+        <v>0.1306453858865923</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0321984181045689</v>
+        <v>0.02610495777897792</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>37</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1536914884.816684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3037567728.23279</v>
+        <v>3509785985.103175</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1061469565459178</v>
+        <v>0.1098436364092688</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02874225444161594</v>
+        <v>0.03938737008556907</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>32</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1518783899.390149</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2027801843.592307</v>
+        <v>1594857770.469124</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1137574578823039</v>
+        <v>0.09542778090876662</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03581529937912929</v>
+        <v>0.04723419721397827</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1013900997.045729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1618760686.791689</v>
+        <v>1950767375.075945</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1586754056658131</v>
+        <v>0.1371720733113163</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03944682957048089</v>
+        <v>0.04047617817653533</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>809380366.4065956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2509440974.840694</v>
+        <v>2942453430.860998</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08283067485892248</v>
+        <v>0.07923812179821176</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03008315428256095</v>
+        <v>0.02892646078782811</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1254720472.003991</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4778128503.012712</v>
+        <v>3480914802.285644</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09985474057167673</v>
+        <v>0.1257948337315172</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05144750946511314</v>
+        <v>0.04874573151405352</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>28</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2389064201.756415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2447608630.60742</v>
+        <v>2145627903.801908</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1419408060918648</v>
+        <v>0.1187215236202328</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02637488455014414</v>
+        <v>0.03960020912928796</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1223804371.90204</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2128260679.43768</v>
+        <v>3052413824.160275</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1031417717858523</v>
+        <v>0.1013606398561275</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03403767453398562</v>
+        <v>0.03837763684308991</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>22</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1064130402.794041</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1556107327.620298</v>
+        <v>1634833629.62014</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09043595472785262</v>
+        <v>0.09060903269680978</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03189862449981929</v>
+        <v>0.04404589589206352</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>778053698.1099089</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3597355488.004375</v>
+        <v>4039552689.528277</v>
       </c>
       <c r="F97" t="n">
-        <v>0.112349626837403</v>
+        <v>0.1178629333949862</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02602138960490288</v>
+        <v>0.02474111146696409</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>31</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1798677767.939594</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2715489915.925406</v>
+        <v>3099552024.124284</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1215464795818671</v>
+        <v>0.1082884539312261</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01988018135746129</v>
+        <v>0.03044202045323425</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>25</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1357744923.303094</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2654966052.726403</v>
+        <v>2411279767.056945</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09454265410130058</v>
+        <v>0.110539628648821</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02891034321666236</v>
+        <v>0.03379558300003228</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>29</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1327482987.222641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3512041358.7951</v>
+        <v>3549425430.457078</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1130326264361194</v>
+        <v>0.1116185845472798</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01738025971833567</v>
+        <v>0.02265189494564463</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>29</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1756020711.037673</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2173250729.957455</v>
+        <v>2994037948.337343</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1401618907831547</v>
+        <v>0.1843352226529258</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05422431563461307</v>
+        <v>0.04919092559189746</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>40</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1086625344.680157</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_94.xlsx
+++ b/output/fit_clients/fit_round_94.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1860341699.110686</v>
+        <v>1538018770.559233</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07780475680769636</v>
+        <v>0.0691774137117686</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03740515272200789</v>
+        <v>0.03538549035732975</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2370815830.872693</v>
+        <v>2620475412.055454</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1459459340214715</v>
+        <v>0.137674030437638</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04693609310766564</v>
+        <v>0.03788457926965122</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5154318677.862263</v>
+        <v>3892985064.449544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1178246548248387</v>
+        <v>0.1254038651924534</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02357373957216547</v>
+        <v>0.02415778723464097</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3413312376.53989</v>
+        <v>2976418391.494833</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08148631851278768</v>
+        <v>0.0743254307607335</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04439000495508116</v>
+        <v>0.05034406774168533</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2058440596.233994</v>
+        <v>1796051875.493128</v>
       </c>
       <c r="F6" t="n">
-        <v>0.137632325839511</v>
+        <v>0.1380842905289415</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0475480489348741</v>
+        <v>0.03662451872268448</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2336607375.998036</v>
+        <v>2614004193.317115</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09169358701198654</v>
+        <v>0.09953647892184277</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04355333050466115</v>
+        <v>0.04724079719242597</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3203237967.47786</v>
+        <v>3334212885.053877</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1935852898041911</v>
+        <v>0.1697349732789799</v>
       </c>
       <c r="G8" t="n">
-        <v>0.023253571762118</v>
+        <v>0.0211914801352756</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2045334737.908556</v>
+        <v>2217463226.082611</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1395978214652769</v>
+        <v>0.1710236085843571</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03554305121776039</v>
+        <v>0.02682678906247072</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5946184658.015409</v>
+        <v>4641551934.4217</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2004998179636053</v>
+        <v>0.1452961162703541</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0362166973695212</v>
+        <v>0.04054365569952172</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2787829265.153918</v>
+        <v>3804878945.637866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1618941279166875</v>
+        <v>0.1219623984144812</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04144927046127526</v>
+        <v>0.03159084198977675</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2588084911.490443</v>
+        <v>2609951392.85137</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1703122205101212</v>
+        <v>0.1288050996840747</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04602758653675454</v>
+        <v>0.03912943334461358</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3303752465.671095</v>
+        <v>5200756233.646056</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07371808042588013</v>
+        <v>0.09763493831847081</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02280499910234882</v>
+        <v>0.03081199759276908</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3556676079.704258</v>
+        <v>2711027169.841272</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1426552810445715</v>
+        <v>0.1327672358169719</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03390623686640197</v>
+        <v>0.03627127689003632</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1274916095.093545</v>
+        <v>1591779637.795237</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09245845141065323</v>
+        <v>0.06656117578276075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04381741602010665</v>
+        <v>0.04129771822496339</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2145981145.145317</v>
+        <v>2552810172.102166</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0814530091866788</v>
+        <v>0.110748505919427</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03462125887750593</v>
+        <v>0.04808101015731009</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3734625071.554778</v>
+        <v>4454370939.004946</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1279924161873064</v>
+        <v>0.165213252168088</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04719845469765364</v>
+        <v>0.03371002680402226</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2482253928.378144</v>
+        <v>3506637091.584141</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1828907618334383</v>
+        <v>0.1754992199064656</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03148344391747379</v>
+        <v>0.02615839126978481</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>881241137.3375895</v>
+        <v>1288485512.138838</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1255725267989695</v>
+        <v>0.1531889956830862</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02557086787392006</v>
+        <v>0.01833954752770826</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2185620753.927324</v>
+        <v>2020766551.17893</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1358847747729948</v>
+        <v>0.1442077038195886</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02181576077597744</v>
+        <v>0.0231844188604437</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2241463248.52386</v>
+        <v>2387320571.26698</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07191567185672355</v>
+        <v>0.07227630552625007</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02927154833658393</v>
+        <v>0.02883079714463866</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2500758658.0098</v>
+        <v>3237315895.726239</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1068631787980922</v>
+        <v>0.09712876674538581</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04623329504079163</v>
+        <v>0.04877824139435141</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1516062162.680405</v>
+        <v>1346877937.327764</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1740023562155283</v>
+        <v>0.1843758177112639</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03542988043249094</v>
+        <v>0.03957845280644319</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3951191519.64287</v>
+        <v>3997869963.419413</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09424645598937821</v>
+        <v>0.1321353916431081</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03663458297950218</v>
+        <v>0.02702009866934898</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1235659820.543958</v>
+        <v>899754212.4748845</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1013148381618344</v>
+        <v>0.1117151987190085</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02792702642334378</v>
+        <v>0.02378843107964444</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1050836503.476734</v>
+        <v>1002915739.858149</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1028266253812119</v>
+        <v>0.09867912279936319</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03277184351737615</v>
+        <v>0.03691698642527971</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3107050024.218708</v>
+        <v>4329782457.809074</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1449081200530695</v>
+        <v>0.1115996415078525</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01706171528156739</v>
+        <v>0.01666528969488206</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3601000947.745634</v>
+        <v>2459155528.930221</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1485988665109269</v>
+        <v>0.1036833422857074</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0464708268648193</v>
+        <v>0.03246132313408329</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5821676050.573686</v>
+        <v>5014262874.073298</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1012430784704102</v>
+        <v>0.1350953111969759</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0328904114501894</v>
+        <v>0.03723291218436797</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1887876355.085071</v>
+        <v>1828436052.633045</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1302925108898144</v>
+        <v>0.1232899713583479</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03202327123811098</v>
+        <v>0.03090420509830979</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1073622152.864473</v>
+        <v>944611559.1619189</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1068038828339495</v>
+        <v>0.0848933784000357</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04554622081619186</v>
+        <v>0.04184952236815244</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1598660533.521752</v>
+        <v>1669930085.665278</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1042768424705678</v>
+        <v>0.1127667159859771</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02377177191923483</v>
+        <v>0.0314891266511963</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2487120267.644132</v>
+        <v>2502361210.423953</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1921170873126135</v>
+        <v>0.1513105578882324</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0375616982969065</v>
+        <v>0.04186855618618399</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1504438976.428107</v>
+        <v>1187436283.881983</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1038543698644459</v>
+        <v>0.09684897069342849</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01793518942909391</v>
+        <v>0.02618902186427868</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1118003956.233123</v>
+        <v>1309213045.154862</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08086584074610094</v>
+        <v>0.08789951295880728</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03540577714974832</v>
+        <v>0.03773408786967007</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2929677590.391584</v>
+        <v>3101926826.995928</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1559064817924523</v>
+        <v>0.150759808422653</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02048894979551857</v>
+        <v>0.01901381138461371</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2518810771.655467</v>
+        <v>2111844825.930345</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08407560928208294</v>
+        <v>0.07297294754460734</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0329129280379638</v>
+        <v>0.03515426834522759</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1706389233.387468</v>
+        <v>2017568065.9863</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1145934719751331</v>
+        <v>0.09058404312975996</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03254897441767778</v>
+        <v>0.03693537442280543</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1651912409.608526</v>
+        <v>1634550013.073128</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1590751789021968</v>
+        <v>0.1699722736041183</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02914508441129531</v>
+        <v>0.02061307890503676</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1475677389.394766</v>
+        <v>1298082016.620229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1419813959341943</v>
+        <v>0.1242160302573106</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04246408024946089</v>
+        <v>0.05054487134167144</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2416517922.015959</v>
+        <v>2283531244.862684</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1509621073483648</v>
+        <v>0.1021577820406678</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03397269798619469</v>
+        <v>0.0413162324569557</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3134975026.403376</v>
+        <v>3623181893.606401</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09016077236517284</v>
+        <v>0.1194200849114206</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04025330888962636</v>
+        <v>0.03358942082439668</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2942844863.277733</v>
+        <v>2814426625.893962</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1989052686896959</v>
+        <v>0.1933173418162479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01604193198357704</v>
+        <v>0.02006648936486323</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1514079567.011502</v>
+        <v>1657439212.577241</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06371118937323904</v>
+        <v>0.08624383810453004</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02776635698959746</v>
+        <v>0.02817762126991556</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2057424117.754461</v>
+        <v>2299608055.051508</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1699753267886285</v>
+        <v>0.1875531638445638</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04004672091986241</v>
+        <v>0.0364252463139561</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4654571703.996457</v>
+        <v>5033133196.158586</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1076440955151469</v>
+        <v>0.1752044108926596</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05048311716075268</v>
+        <v>0.04954494416400741</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4951627349.948693</v>
+        <v>3551005794.626835</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1831851063473862</v>
+        <v>0.1235560889009122</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0366993088367519</v>
+        <v>0.05796744827495449</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2842935508.825913</v>
+        <v>3736176464.88583</v>
       </c>
       <c r="F48" t="n">
-        <v>0.093448624385915</v>
+        <v>0.09686019562802499</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03451533038487199</v>
+        <v>0.03161302518732981</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1469530613.236531</v>
+        <v>1908725625.481721</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1714736751794034</v>
+        <v>0.1819683620274834</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04074689839865939</v>
+        <v>0.0400971115729272</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3354526080.254104</v>
+        <v>3567642995.123066</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1666165382708307</v>
+        <v>0.1259239033269209</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0384614703612105</v>
+        <v>0.04877253428139531</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1016825504.321161</v>
+        <v>1298561056.114763</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1450219731840349</v>
+        <v>0.1812197879540599</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04497039200632914</v>
+        <v>0.05136320131426134</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5129041999.673622</v>
+        <v>3703934434.667488</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1296133686732559</v>
+        <v>0.1266831945806982</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04667816018567522</v>
+        <v>0.04121022138048003</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3189180980.13924</v>
+        <v>3480889262.025673</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1774819399137106</v>
+        <v>0.170727454838683</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03170275976599791</v>
+        <v>0.02754391610987637</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4334808822.286544</v>
+        <v>3024582080.409195</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1453472069004262</v>
+        <v>0.1666203903370337</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04167891597990029</v>
+        <v>0.04280937841374392</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4112181649.859543</v>
+        <v>4239371802.189176</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1898172350202926</v>
+        <v>0.149852175153269</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02709303646088425</v>
+        <v>0.02552705941856922</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1876425489.292225</v>
+        <v>1797792720.723485</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1228297177675608</v>
+        <v>0.1591510777062181</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03629499878074936</v>
+        <v>0.04240542591856987</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4290259211.224965</v>
+        <v>4395743457.499569</v>
       </c>
       <c r="F57" t="n">
-        <v>0.158036447425809</v>
+        <v>0.1139153701028491</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01964530845475439</v>
+        <v>0.02053001124660511</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1669018506.549653</v>
+        <v>1271134618.684755</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1573165826012489</v>
+        <v>0.1825995702435761</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02620058334272935</v>
+        <v>0.02907279343112772</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4660924046.394249</v>
+        <v>3836084515.263209</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1081962616413775</v>
+        <v>0.1040065085337526</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03366207623481405</v>
+        <v>0.03734176709827131</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3264442196.821554</v>
+        <v>2829908099.030445</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1598515054588246</v>
+        <v>0.1310503203494191</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02081465018970478</v>
+        <v>0.0252227898757144</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2269239233.128036</v>
+        <v>2468303779.834686</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1535324570539114</v>
+        <v>0.1360870731084959</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02534884362674505</v>
+        <v>0.02436901803631376</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1517973310.671451</v>
+        <v>1371012234.204768</v>
       </c>
       <c r="F62" t="n">
-        <v>0.142143082036627</v>
+        <v>0.1899669094392687</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04162366875920471</v>
+        <v>0.04451647250429981</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4462568242.430421</v>
+        <v>4857134705.033066</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07271676112249423</v>
+        <v>0.0662511628651465</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03249713523874402</v>
+        <v>0.0330520125967463</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3573463479.297158</v>
+        <v>4527651746.831153</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1367686714399603</v>
+        <v>0.1700157992729657</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02924423916291439</v>
+        <v>0.02331440111496999</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4738203835.500684</v>
+        <v>4559346787.712331</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1084876347799906</v>
+        <v>0.1360366467281066</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02175505449546888</v>
+        <v>0.02267801468132212</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3577380681.588005</v>
+        <v>5345375046.574439</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1285682997491728</v>
+        <v>0.1436886363587647</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04152746592789862</v>
+        <v>0.03500147256306559</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2381187296.049249</v>
+        <v>3366464786.978985</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1002767307612918</v>
+        <v>0.06783864966590426</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04382434081758607</v>
+        <v>0.04663779828960839</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4268367237.462325</v>
+        <v>5705052983.594183</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1500411466931509</v>
+        <v>0.1354423931066085</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04248446192807865</v>
+        <v>0.0438797297150481</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2143140217.304007</v>
+        <v>1750459039.480556</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1209744335791131</v>
+        <v>0.1452206738180343</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0411540644035969</v>
+        <v>0.04303908482711202</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3281870557.091136</v>
+        <v>3057158438.164096</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08281873221011567</v>
+        <v>0.09378469986347863</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04558734979932248</v>
+        <v>0.04401416515169512</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3802421941.321563</v>
+        <v>4595111342.209283</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1316559485375584</v>
+        <v>0.1372439219383835</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0255181196977428</v>
+        <v>0.03189374456926482</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1596570243.46059</v>
+        <v>1730391449.28261</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1031444529852037</v>
+        <v>0.07815167450555663</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05236856882716102</v>
+        <v>0.05133769482422622</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2452482731.548912</v>
+        <v>2379702489.129692</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07958935373380489</v>
+        <v>0.07499782639253723</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04087829209155106</v>
+        <v>0.04325374406001586</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3061911754.840446</v>
+        <v>3444573417.579107</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1544212971769093</v>
+        <v>0.1419039823548783</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0287854129274745</v>
+        <v>0.02726690650323526</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1864991919.285675</v>
+        <v>2021265934.831103</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1068625652050282</v>
+        <v>0.1118455231541913</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02728359148752226</v>
+        <v>0.03356159978630011</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4264648420.502385</v>
+        <v>4518081950.74854</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0858288363860599</v>
+        <v>0.1014988612341589</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02898019599479656</v>
+        <v>0.02480039163032308</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1419964700.105421</v>
+        <v>2285689834.02072</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1617017237649531</v>
+        <v>0.1485914383627159</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01919100241397888</v>
+        <v>0.01995193729391774</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3817633039.06645</v>
+        <v>4472531157.430327</v>
       </c>
       <c r="F78" t="n">
-        <v>0.108119101628479</v>
+        <v>0.1064000753821237</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04209919321517745</v>
+        <v>0.04301785675812096</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1188174625.129017</v>
+        <v>1771944566.799824</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1605974889365537</v>
+        <v>0.1377402358841773</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03187262946940036</v>
+        <v>0.0295104778438552</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4288563125.851912</v>
+        <v>4440259597.255742</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07743517317777708</v>
+        <v>0.08073386243989315</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03556658471623061</v>
+        <v>0.02511703868204302</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3780579554.514418</v>
+        <v>5214801732.712323</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1248148057428563</v>
+        <v>0.1192010793675905</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0258790539712951</v>
+        <v>0.03090594123736671</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5554821631.156083</v>
+        <v>3456792470.224618</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1508072772510102</v>
+        <v>0.1393979254106042</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01925850795548434</v>
+        <v>0.0283021713699415</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2258392648.484076</v>
+        <v>2466901604.658928</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1167738534755725</v>
+        <v>0.1026137136772696</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02977145379711119</v>
+        <v>0.03372868746601848</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2402500841.951366</v>
+        <v>2572765465.284986</v>
       </c>
       <c r="F84" t="n">
-        <v>0.093542255069685</v>
+        <v>0.1200237604806072</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04253036586926211</v>
+        <v>0.03932691588514694</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3522040939.962296</v>
+        <v>3389473367.074488</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1832173968127587</v>
+        <v>0.180003486245866</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03469615545591103</v>
+        <v>0.04719423122814796</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2442197708.932941</v>
+        <v>2049620652.464333</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1141807325207836</v>
+        <v>0.1506910105527384</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02232724150311034</v>
+        <v>0.01920191441385246</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1101280075.309927</v>
+        <v>1422577418.178713</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1278483443118306</v>
+        <v>0.1354963397174448</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02833326783970978</v>
+        <v>0.03097510941206439</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2865274113.705543</v>
+        <v>3314324936.825314</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1306453858865923</v>
+        <v>0.1581866411014646</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02610495777897792</v>
+        <v>0.03540518797636234</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3509785985.103175</v>
+        <v>2348560380.983285</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1098436364092688</v>
+        <v>0.1438331344727871</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03938737008556907</v>
+        <v>0.03162656151111561</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1594857770.469124</v>
+        <v>1816509794.55029</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09542778090876662</v>
+        <v>0.1353851116804222</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04723419721397827</v>
+        <v>0.04241876674673944</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1950767375.075945</v>
+        <v>1662225832.672319</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1371720733113163</v>
+        <v>0.1200353682099485</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04047617817653533</v>
+        <v>0.04058771952171385</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2942453430.860998</v>
+        <v>2201301785.419887</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07923812179821176</v>
+        <v>0.06967521863121715</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02892646078782811</v>
+        <v>0.03984702434770763</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3480914802.285644</v>
+        <v>3273282154.809876</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1257948337315172</v>
+        <v>0.1372939768768918</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04874573151405352</v>
+        <v>0.04237951221736708</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2145627903.801908</v>
+        <v>2443128541.694568</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1187215236202328</v>
+        <v>0.1642616805177475</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03960020912928796</v>
+        <v>0.04218794863697625</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3052413824.160275</v>
+        <v>3275565312.362945</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1013606398561275</v>
+        <v>0.08525050835985207</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03837763684308991</v>
+        <v>0.03453589092955246</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1634833629.62014</v>
+        <v>1555887332.820776</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09060903269680978</v>
+        <v>0.1242503369149058</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04404589589206352</v>
+        <v>0.04158586739181686</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4039552689.528277</v>
+        <v>3699422620.947982</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1178629333949862</v>
+        <v>0.1616625925960172</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02474111146696409</v>
+        <v>0.02434657947475685</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3099552024.124284</v>
+        <v>3294602025.372562</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1082884539312261</v>
+        <v>0.09357987517725069</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03044202045323425</v>
+        <v>0.02345396419899662</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2411279767.056945</v>
+        <v>2937059975.837914</v>
       </c>
       <c r="F99" t="n">
-        <v>0.110539628648821</v>
+        <v>0.1443418890503782</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03379558300003228</v>
+        <v>0.03099778322492203</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3549425430.457078</v>
+        <v>4483184307.641016</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1116185845472798</v>
+        <v>0.1297981810286936</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02265189494564463</v>
+        <v>0.01904947163047862</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2994037948.337343</v>
+        <v>2696560704.068157</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1843352226529258</v>
+        <v>0.1659265891799101</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04919092559189746</v>
+        <v>0.04876203548736899</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_94.xlsx
+++ b/output/fit_clients/fit_round_94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1538018770.559233</v>
+        <v>1607394745.312446</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0691774137117686</v>
+        <v>0.08884705131435743</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03538549035732975</v>
+        <v>0.03526050102474821</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2620475412.055454</v>
+        <v>2406164177.24416</v>
       </c>
       <c r="F3" t="n">
-        <v>0.137674030437638</v>
+        <v>0.1681159986664244</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03788457926965122</v>
+        <v>0.04052858077028817</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3892985064.449544</v>
+        <v>5218777422.440664</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1254038651924534</v>
+        <v>0.1529175462332059</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02415778723464097</v>
+        <v>0.02553811860279982</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>59</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2976418391.494833</v>
+        <v>2862308453.699587</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0743254307607335</v>
+        <v>0.0975553701349967</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05034406774168533</v>
+        <v>0.03693306481592695</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>90</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1796051875.493128</v>
+        <v>1744841980.459544</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1380842905289415</v>
+        <v>0.1038819314603381</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03662451872268448</v>
+        <v>0.04365102788148054</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2614004193.317115</v>
+        <v>2613114769.422953</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09953647892184277</v>
+        <v>0.07155697519836864</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04724079719242597</v>
+        <v>0.04689437263441864</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3334212885.053877</v>
+        <v>3397135403.007895</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1697349732789799</v>
+        <v>0.2179255143423253</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0211914801352756</v>
+        <v>0.02446173800694606</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>94</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2217463226.082611</v>
+        <v>1881712217.02751</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1710236085843571</v>
+        <v>0.180750261220212</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02682678906247072</v>
+        <v>0.02664966029571909</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4641551934.4217</v>
+        <v>5570153441.50887</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1452961162703541</v>
+        <v>0.1863315334055724</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04054365569952172</v>
+        <v>0.04634743199393229</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>94</v>
+      </c>
+      <c r="K10" t="n">
+        <v>185.8020488480511</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3804878945.637866</v>
+        <v>2588648395.430853</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1219623984144812</v>
+        <v>0.1403542284082472</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03159084198977675</v>
+        <v>0.04386881027444683</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>93</v>
+      </c>
+      <c r="K11" t="n">
+        <v>87.03641134422595</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2609951392.85137</v>
+        <v>2501814109.831089</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1288050996840747</v>
+        <v>0.1330657454950311</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03912943334461358</v>
+        <v>0.03482796940711878</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5200756233.646056</v>
+        <v>4861856979.404289</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09763493831847081</v>
+        <v>0.07001565951942808</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03081199759276908</v>
+        <v>0.02715021575379125</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>47</v>
+      </c>
+      <c r="J13" t="n">
+        <v>94</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2711027169.841272</v>
+        <v>2444697399.768436</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1327672358169719</v>
+        <v>0.1326521286213599</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03627127689003632</v>
+        <v>0.02766490415284006</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>92</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1591779637.795237</v>
+        <v>1555101153.924925</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06656117578276075</v>
+        <v>0.07739129159437838</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04129771822496339</v>
+        <v>0.03619866544676927</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2552810172.102166</v>
+        <v>2058560587.275038</v>
       </c>
       <c r="F16" t="n">
-        <v>0.110748505919427</v>
+        <v>0.07329555042855275</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04808101015731009</v>
+        <v>0.03278797735590593</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4454370939.004946</v>
+        <v>3820038041.073883</v>
       </c>
       <c r="F17" t="n">
-        <v>0.165213252168088</v>
+        <v>0.1136181589790806</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03371002680402226</v>
+        <v>0.03664475775054121</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>45</v>
+      </c>
+      <c r="J17" t="n">
+        <v>94</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3506637091.584141</v>
+        <v>3076178344.370984</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1754992199064656</v>
+        <v>0.185052848423777</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02615839126978481</v>
+        <v>0.03276489352554444</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>91</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1288485512.138838</v>
+        <v>907495046.6727024</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1531889956830862</v>
+        <v>0.121774110411387</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01833954752770826</v>
+        <v>0.02059515364822442</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2020766551.17893</v>
+        <v>2411759101.728072</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1442077038195886</v>
+        <v>0.1388643456936167</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0231844188604437</v>
+        <v>0.03166502290288314</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2387320571.26698</v>
+        <v>1681595064.59743</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07227630552625007</v>
+        <v>0.1018585497416221</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02883079714463866</v>
+        <v>0.04349389831322992</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1205,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3237315895.726239</v>
+        <v>2508623059.462628</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09712876674538581</v>
+        <v>0.1368719368641416</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04877824139435141</v>
+        <v>0.03851547596614606</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>23</v>
+      </c>
+      <c r="J22" t="n">
+        <v>93</v>
+      </c>
+      <c r="K22" t="n">
+        <v>67.83986277182139</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1346877937.327764</v>
+        <v>1401817226.743564</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1843758177112639</v>
+        <v>0.1303523893078291</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03957845280644319</v>
+        <v>0.05127095193275744</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3997869963.419413</v>
+        <v>2668995304.904154</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1321353916431081</v>
+        <v>0.125492167216043</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02702009866934898</v>
+        <v>0.02640442743943434</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>90</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>899754212.4748845</v>
+        <v>1120897287.198652</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1117151987190085</v>
+        <v>0.08910960068446583</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02378843107964444</v>
+        <v>0.02352679751290425</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1002915739.858149</v>
+        <v>1455089015.895925</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09867912279936319</v>
+        <v>0.09705541151796084</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03691698642527971</v>
+        <v>0.03397663840962315</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4329782457.809074</v>
+        <v>4228102684.488714</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1115996415078525</v>
+        <v>0.1568925629424536</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01666528969488206</v>
+        <v>0.01976634857204364</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>37</v>
+      </c>
+      <c r="J27" t="n">
+        <v>93</v>
+      </c>
+      <c r="K27" t="n">
+        <v>139.5891281452845</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2459155528.930221</v>
+        <v>2745479710.550106</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1036833422857074</v>
+        <v>0.1020347612399203</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03246132313408329</v>
+        <v>0.0418852843308076</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5014262874.073298</v>
+        <v>4004472930.882353</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1350953111969759</v>
+        <v>0.11286297022744</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03723291218436797</v>
+        <v>0.03053575440533151</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>88</v>
+      </c>
+      <c r="J29" t="n">
+        <v>94</v>
+      </c>
+      <c r="K29" t="n">
+        <v>197.3409000541403</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1828436052.633045</v>
+        <v>2206658416.193886</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1232899713583479</v>
+        <v>0.09632122826838858</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03090420509830979</v>
+        <v>0.03999250509991728</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>944611559.1619189</v>
+        <v>1492401228.172922</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0848933784000357</v>
+        <v>0.08623789642090944</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04184952236815244</v>
+        <v>0.04090871839534836</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1669930085.665278</v>
+        <v>1318648194.635841</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1127667159859771</v>
+        <v>0.08763814661677134</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0314891266511963</v>
+        <v>0.03504042162804029</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2502361210.423953</v>
+        <v>2418604650.894463</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1513105578882324</v>
+        <v>0.1834610567530919</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04186855618618399</v>
+        <v>0.05738006603437432</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1187436283.881983</v>
+        <v>969967424.9728285</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09684897069342849</v>
+        <v>0.07659078943657854</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02618902186427868</v>
+        <v>0.01974643139692051</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1309213045.154862</v>
+        <v>1210720235.435391</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08789951295880728</v>
+        <v>0.07695498894789012</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03773408786967007</v>
+        <v>0.04126711185649615</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3101926826.995928</v>
+        <v>2881509896.88792</v>
       </c>
       <c r="F36" t="n">
-        <v>0.150759808422653</v>
+        <v>0.1477167431102505</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01901381138461371</v>
+        <v>0.02110792971341513</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2111844825.930345</v>
+        <v>1883088965.024447</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07297294754460734</v>
+        <v>0.1025960693011221</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03515426834522759</v>
+        <v>0.03640820640382102</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2017568065.9863</v>
+        <v>1935991976.963809</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09058404312975996</v>
+        <v>0.09767535903197345</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03693537442280543</v>
+        <v>0.03763089546384165</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1634550013.073128</v>
+        <v>1791866437.622406</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1699722736041183</v>
+        <v>0.1637310634261717</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02061307890503676</v>
+        <v>0.02917840068642204</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1298082016.620229</v>
+        <v>1111958344.000733</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1242160302573106</v>
+        <v>0.1455446703772899</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05054487134167144</v>
+        <v>0.0543896793694655</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2283531244.862684</v>
+        <v>2357093184.154018</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1021577820406678</v>
+        <v>0.1135411576036879</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0413162324569557</v>
+        <v>0.0326686478795806</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3623181893.606401</v>
+        <v>3976309875.645317</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1194200849114206</v>
+        <v>0.1207616205527408</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03358942082439668</v>
+        <v>0.02969089407715087</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>36</v>
+      </c>
+      <c r="J42" t="n">
+        <v>93</v>
+      </c>
+      <c r="K42" t="n">
+        <v>170.5190590013054</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2814426625.893962</v>
+        <v>3017702089.876174</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1933173418162479</v>
+        <v>0.1317721995343027</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02006648936486323</v>
+        <v>0.02305361950611961</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1657439212.577241</v>
+        <v>2010592526.470938</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08624383810453004</v>
+        <v>0.06602725641266134</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02817762126991556</v>
+        <v>0.02304475527646466</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2299608055.051508</v>
+        <v>1547307951.166481</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1875531638445638</v>
+        <v>0.1793172260767147</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0364252463139561</v>
+        <v>0.05508977849647714</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5033133196.158586</v>
+        <v>3723153029.357069</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1752044108926596</v>
+        <v>0.1409177925488438</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04954494416400741</v>
+        <v>0.04042962048464763</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>53</v>
+      </c>
+      <c r="J46" t="n">
+        <v>94</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3551005794.626835</v>
+        <v>4050309487.855401</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1235560889009122</v>
+        <v>0.1241108375745223</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05796744827495449</v>
+        <v>0.04815913944770269</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>41</v>
+      </c>
+      <c r="J47" t="n">
+        <v>94</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3736176464.88583</v>
+        <v>3448920512.621106</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09686019562802499</v>
+        <v>0.07667519665447325</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03161302518732981</v>
+        <v>0.03862106504755226</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>35</v>
+      </c>
+      <c r="J48" t="n">
+        <v>94</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1908725625.481721</v>
+        <v>1802921558.293587</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1819683620274834</v>
+        <v>0.145968730336276</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0400971115729272</v>
+        <v>0.0445988812289346</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3567642995.123066</v>
+        <v>3250769558.692649</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1259239033269209</v>
+        <v>0.1332689716529661</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04877253428139531</v>
+        <v>0.03892740738536157</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>33</v>
+      </c>
+      <c r="J50" t="n">
+        <v>92</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1298561056.114763</v>
+        <v>1322494737.766124</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1812197879540599</v>
+        <v>0.143990664857615</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05136320131426134</v>
+        <v>0.05272651984344434</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3703934434.667488</v>
+        <v>5254618692.16038</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1266831945806982</v>
+        <v>0.1137497283270447</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04121022138048003</v>
+        <v>0.0421839528097396</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>72</v>
+      </c>
+      <c r="J52" t="n">
+        <v>94</v>
+      </c>
+      <c r="K52" t="n">
+        <v>176.5005477969017</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3480889262.025673</v>
+        <v>2743161440.110617</v>
       </c>
       <c r="F53" t="n">
-        <v>0.170727454838683</v>
+        <v>0.1326619021280892</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02754391610987637</v>
+        <v>0.02232266292838255</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3024582080.409195</v>
+        <v>4680584724.049303</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1666203903370337</v>
+        <v>0.1584840045600824</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04280937841374392</v>
+        <v>0.03308296622708076</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>42</v>
+      </c>
+      <c r="J54" t="n">
+        <v>94</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2370,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4239371802.189176</v>
+        <v>4721703060.390714</v>
       </c>
       <c r="F55" t="n">
-        <v>0.149852175153269</v>
+        <v>0.1751832748134367</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02552705941856922</v>
+        <v>0.02709240512150557</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>43</v>
+      </c>
+      <c r="J55" t="n">
+        <v>93</v>
+      </c>
+      <c r="K55" t="n">
+        <v>151.1150831048182</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1797792720.723485</v>
+        <v>1445894944.433836</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1591510777062181</v>
+        <v>0.1576637152447176</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04240542591856987</v>
+        <v>0.03643728284468498</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4395743457.499569</v>
+        <v>3751352571.845255</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1139153701028491</v>
+        <v>0.1192774450832365</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02053001124660511</v>
+        <v>0.02715618301559336</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>35</v>
+      </c>
+      <c r="J57" t="n">
+        <v>94</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1271134618.684755</v>
+        <v>1829089208.390293</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1825995702435761</v>
+        <v>0.1420089546655236</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02907279343112772</v>
+        <v>0.03666802692398816</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3836084515.263209</v>
+        <v>3758087056.708102</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1040065085337526</v>
+        <v>0.1163014408794101</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03734176709827131</v>
+        <v>0.03466911164942176</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>46</v>
+      </c>
+      <c r="J59" t="n">
+        <v>93</v>
+      </c>
+      <c r="K59" t="n">
+        <v>151.5276819690191</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2549,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2829908099.030445</v>
+        <v>3155317318.709148</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1310503203494191</v>
+        <v>0.1953580545180728</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0252227898757144</v>
+        <v>0.03032954282227533</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" t="n">
+        <v>92</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2584,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2468303779.834686</v>
+        <v>2904764123.39579</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1360870731084959</v>
+        <v>0.1399927157010898</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02436901803631376</v>
+        <v>0.02318977145709617</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1371012234.204768</v>
+        <v>1344692987.381262</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1899669094392687</v>
+        <v>0.1473498160398026</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04451647250429981</v>
+        <v>0.0393237248595197</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2648,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4857134705.033066</v>
+        <v>4502670578.13115</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0662511628651465</v>
+        <v>0.07914009489547463</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0330520125967463</v>
+        <v>0.02910207527110738</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>46</v>
+      </c>
+      <c r="J63" t="n">
+        <v>94</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2683,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4527651746.831153</v>
+        <v>4765323002.977965</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1700157992729657</v>
+        <v>0.1551875298641376</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02331440111496999</v>
+        <v>0.03507688691066907</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>46</v>
+      </c>
+      <c r="J64" t="n">
+        <v>94</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2724,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4559346787.712331</v>
+        <v>5594016123.568358</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1360366467281066</v>
+        <v>0.1296074340550413</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02267801468132212</v>
+        <v>0.02947745468192862</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>75</v>
+      </c>
+      <c r="J65" t="n">
+        <v>94</v>
+      </c>
+      <c r="K65" t="n">
+        <v>172.7132272049631</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2755,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5345375046.574439</v>
+        <v>5679852438.686337</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1436886363587647</v>
+        <v>0.1549055583984101</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03500147256306559</v>
+        <v>0.04651523212392987</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>46</v>
+      </c>
+      <c r="J66" t="n">
+        <v>94</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3366464786.978985</v>
+        <v>3131099235.905041</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06783864966590426</v>
+        <v>0.09671457398346943</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04663779828960839</v>
+        <v>0.04845686234812636</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2825,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5705052983.594183</v>
+        <v>3921512104.552092</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1354423931066085</v>
+        <v>0.159164249308177</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0438797297150481</v>
+        <v>0.04657874937256119</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>47</v>
+      </c>
+      <c r="J68" t="n">
+        <v>93</v>
+      </c>
+      <c r="K68" t="n">
+        <v>159.487064297699</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2868,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1750459039.480556</v>
+        <v>1534361916.731216</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1452206738180343</v>
+        <v>0.1562347245690773</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04303908482711202</v>
+        <v>0.03913318921779847</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2903,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3057158438.164096</v>
+        <v>3266823186.279664</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09378469986347863</v>
+        <v>0.06812343150500921</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04401416515169512</v>
+        <v>0.03296947314573151</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>92</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4595111342.209283</v>
+        <v>5550840419.221542</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1372439219383835</v>
+        <v>0.1622371292707011</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03189374456926482</v>
+        <v>0.02452432229588727</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>77</v>
+      </c>
+      <c r="J71" t="n">
+        <v>94</v>
+      </c>
+      <c r="K71" t="n">
+        <v>174.4377398473234</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1730391449.28261</v>
+        <v>1531922706.294036</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07815167450555663</v>
+        <v>0.06561632592035541</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05133769482422622</v>
+        <v>0.05252977733398092</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3010,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2379702489.129692</v>
+        <v>2311137505.559752</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07499782639253723</v>
+        <v>0.1115252958792838</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04325374406001586</v>
+        <v>0.03974802409996037</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3444573417.579107</v>
+        <v>3601634702.522466</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1419039823548783</v>
+        <v>0.1477273688624209</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02726690650323526</v>
+        <v>0.02672138937304322</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>30</v>
+      </c>
+      <c r="J74" t="n">
+        <v>93</v>
+      </c>
+      <c r="K74" t="n">
+        <v>153.0921682315228</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2021265934.831103</v>
+        <v>1866192323.068111</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1118455231541913</v>
+        <v>0.1442727672156614</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03356159978630011</v>
+        <v>0.02809136704682608</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4518081950.74854</v>
+        <v>4865836921.022673</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1014988612341589</v>
+        <v>0.1052549135600093</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02480039163032308</v>
+        <v>0.02914744693670901</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>43</v>
+      </c>
+      <c r="J76" t="n">
+        <v>94</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2285689834.02072</v>
+        <v>2196497861.361164</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1485914383627159</v>
+        <v>0.1835426865412142</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01995193729391774</v>
+        <v>0.01996866440928716</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3181,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4472531157.430327</v>
+        <v>4536460525.374197</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1064000753821237</v>
+        <v>0.09888202757281969</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04301785675812096</v>
+        <v>0.05588568056367782</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>47</v>
+      </c>
+      <c r="J78" t="n">
+        <v>94</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3222,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1771944566.799824</v>
+        <v>1872390733.975976</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1377402358841773</v>
+        <v>0.1594598749263483</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0295104778438552</v>
+        <v>0.0392988758427683</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4440259597.255742</v>
+        <v>3395882422.14677</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08073386243989315</v>
+        <v>0.1072958698616321</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02511703868204302</v>
+        <v>0.02762249819488765</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>45</v>
+      </c>
+      <c r="J80" t="n">
+        <v>93</v>
+      </c>
+      <c r="K80" t="n">
+        <v>103.7745741196334</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5214801732.712323</v>
+        <v>3976187169.208673</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1192010793675905</v>
+        <v>0.1272774344376917</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03090594123736671</v>
+        <v>0.0294919699759725</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>43</v>
+      </c>
+      <c r="J81" t="n">
+        <v>93</v>
+      </c>
+      <c r="K81" t="n">
+        <v>140.2893854575582</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3456792470.224618</v>
+        <v>3552659552.091408</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1393979254106042</v>
+        <v>0.1725568828851665</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0283021713699415</v>
+        <v>0.02050922332568961</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>61</v>
+      </c>
+      <c r="J82" t="n">
+        <v>93</v>
+      </c>
+      <c r="K82" t="n">
+        <v>156.33294122384</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2466901604.658928</v>
+        <v>2449089840.587638</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1026137136772696</v>
+        <v>0.1477796138306567</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03372868746601848</v>
+        <v>0.03038584114535701</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2572765465.284986</v>
+        <v>1684343395.832791</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1200237604806072</v>
+        <v>0.07552075016137018</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03932691588514694</v>
+        <v>0.05098672610889853</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3438,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3389473367.074488</v>
+        <v>2319115469.705964</v>
       </c>
       <c r="F85" t="n">
-        <v>0.180003486245866</v>
+        <v>0.1398415439197192</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04719423122814796</v>
+        <v>0.05448012861931742</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>88</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2049620652.464333</v>
+        <v>2350143481.929021</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1506910105527384</v>
+        <v>0.1165736418138417</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01920191441385246</v>
+        <v>0.0212186364180081</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1422577418.178713</v>
+        <v>1040609624.981355</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1354963397174448</v>
+        <v>0.1686892144535118</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03097510941206439</v>
+        <v>0.04126630229954857</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3314324936.825314</v>
+        <v>3437456371.279664</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1581866411014646</v>
+        <v>0.1189217058451713</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03540518797636234</v>
+        <v>0.03507050089880202</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>94</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3572,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2348560380.983285</v>
+        <v>3309447085.565202</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1438331344727871</v>
+        <v>0.1203614096307489</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03162656151111561</v>
+        <v>0.03138212907622522</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1816509794.55029</v>
+        <v>2084218027.877318</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1353851116804222</v>
+        <v>0.1029922859624664</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04241876674673944</v>
+        <v>0.04716920026618705</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3648,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1662225832.672319</v>
+        <v>1396520503.176744</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1200353682099485</v>
+        <v>0.1707166541655725</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04058771952171385</v>
+        <v>0.06168217908144286</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2201301785.419887</v>
+        <v>2520610561.028228</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06967521863121715</v>
+        <v>0.08218039541088296</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03984702434770763</v>
+        <v>0.03031211575362423</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3273282154.809876</v>
+        <v>3694407052.770725</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1372939768768918</v>
+        <v>0.1055315732708213</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04237951221736708</v>
+        <v>0.04453892544568278</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>43</v>
+      </c>
+      <c r="J93" t="n">
+        <v>93</v>
+      </c>
+      <c r="K93" t="n">
+        <v>148.7407131347296</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2443128541.694568</v>
+        <v>2233650475.112059</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1642616805177475</v>
+        <v>0.1036444949580896</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04218794863697625</v>
+        <v>0.03217309798486858</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3275565312.362945</v>
+        <v>2916856075.367345</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08525050835985207</v>
+        <v>0.1239125254620997</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03453589092955246</v>
+        <v>0.05181129075097744</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3825,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1555887332.820776</v>
+        <v>1548127305.976118</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1242503369149058</v>
+        <v>0.1264871415118016</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04158586739181686</v>
+        <v>0.02904020838241746</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3699422620.947982</v>
+        <v>3665590431.252044</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1616625925960172</v>
+        <v>0.1565400100417922</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02434657947475685</v>
+        <v>0.02774525858748456</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>45</v>
+      </c>
+      <c r="J97" t="n">
+        <v>93</v>
+      </c>
+      <c r="K97" t="n">
+        <v>156.1194930372407</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3294602025.372562</v>
+        <v>3501184480.521623</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09357987517725069</v>
+        <v>0.08976827485567079</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02345396419899662</v>
+        <v>0.02242452100938345</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>93</v>
+      </c>
+      <c r="K98" t="n">
+        <v>127.5565198265836</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2937059975.837914</v>
+        <v>3378241456.851799</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1443418890503782</v>
+        <v>0.1431882943998666</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03099778322492203</v>
+        <v>0.02830182701127586</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4483184307.641016</v>
+        <v>3770800446.671677</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1297981810286936</v>
+        <v>0.1298600407574478</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01904947163047862</v>
+        <v>0.01826388843735305</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>38</v>
+      </c>
+      <c r="J100" t="n">
+        <v>93</v>
+      </c>
+      <c r="K100" t="n">
+        <v>155.368427936709</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2696560704.068157</v>
+        <v>2536364353.659923</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1659265891799101</v>
+        <v>0.1796430106268409</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04876203548736899</v>
+        <v>0.05551498134757867</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
